--- a/data/trans_orig/P2A_enfcro_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>114264</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>98670</v>
+        <v>95916</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>131041</v>
+        <v>129430</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4185336039014242</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3614152189547387</v>
+        <v>0.3513272806728994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4799844096122001</v>
+        <v>0.4740870210609539</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -765,19 +765,19 @@
         <v>129900</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>114323</v>
+        <v>112391</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>146588</v>
+        <v>146937</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4980120718890002</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4382918955187378</v>
+        <v>0.4308845058001615</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5619903267878018</v>
+        <v>0.5633266497108599</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>240</v>
@@ -786,19 +786,19 @@
         <v>244164</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>221211</v>
+        <v>220231</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>270048</v>
+        <v>265622</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4573667748957551</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4143698541890804</v>
+        <v>0.4125343886763607</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5058527357833155</v>
+        <v>0.4975617217439369</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>158746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>141969</v>
+        <v>143580</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174340</v>
+        <v>177094</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5814663960985758</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5200155903877993</v>
+        <v>0.5259129789390461</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6385847810452612</v>
+        <v>0.6486727193271008</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>122</v>
@@ -836,19 +836,19 @@
         <v>130938</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114250</v>
+        <v>113901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146515</v>
+        <v>148447</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5019879281109999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4380096732121982</v>
+        <v>0.4366733502891402</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5617081044812622</v>
+        <v>0.5691154941998385</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>276</v>
@@ -857,19 +857,19 @@
         <v>289684</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>263800</v>
+        <v>268226</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>312637</v>
+        <v>313617</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5426332251042449</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4941472642166846</v>
+        <v>0.5024382782560641</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5856301458109197</v>
+        <v>0.5874656113236394</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>198936</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>176138</v>
+        <v>179899</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>224323</v>
+        <v>222712</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.403459700134579</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3572245510359874</v>
+        <v>0.364850252175187</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4549470105369418</v>
+        <v>0.4516807299146062</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>300</v>
@@ -982,19 +982,19 @@
         <v>302759</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>280278</v>
+        <v>278819</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>324985</v>
+        <v>323716</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6007725772798055</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5561640580580736</v>
+        <v>0.5532684657617277</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6448762329432436</v>
+        <v>0.6423577944519915</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>485</v>
@@ -1003,19 +1003,19 @@
         <v>501695</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>469510</v>
+        <v>470215</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>532522</v>
+        <v>534249</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5031921258780253</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4709110776455419</v>
+        <v>0.4716184460279507</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5341119795951915</v>
+        <v>0.5358439107189434</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>294139</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>268752</v>
+        <v>270363</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>316937</v>
+        <v>313176</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.596540299865421</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5450529894630582</v>
+        <v>0.5483192700853938</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6427754489640126</v>
+        <v>0.635149747824813</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>199</v>
@@ -1053,19 +1053,19 @@
         <v>201190</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>178964</v>
+        <v>180233</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>223671</v>
+        <v>225130</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3992274227201945</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3551237670567565</v>
+        <v>0.3576422055480086</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4438359419419264</v>
+        <v>0.4467315342382723</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>479</v>
@@ -1074,19 +1074,19 @@
         <v>495329</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>464502</v>
+        <v>462775</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>527514</v>
+        <v>526809</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4968078741219747</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4658880204048086</v>
+        <v>0.4641560892810566</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5290889223544584</v>
+        <v>0.5283815539720493</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>139402</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>122092</v>
+        <v>123423</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>158119</v>
+        <v>157794</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4372087088959125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3829186844119907</v>
+        <v>0.3870921312595888</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4959090033883207</v>
+        <v>0.4948908800661866</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -1199,19 +1199,19 @@
         <v>226381</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>208994</v>
+        <v>209540</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>243914</v>
+        <v>244389</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6749329043661608</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6230973342845463</v>
+        <v>0.6247241995186325</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7272078007491201</v>
+        <v>0.7286223916982902</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>362</v>
@@ -1220,19 +1220,19 @@
         <v>365783</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>339698</v>
+        <v>341274</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>390683</v>
+        <v>390398</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5590804458215072</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5192107253737784</v>
+        <v>0.521619406977083</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5971388272102357</v>
+        <v>0.5967041405111596</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>179444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>160727</v>
+        <v>161052</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>196754</v>
+        <v>195423</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5627912911040875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5040909966116792</v>
+        <v>0.5051091199338134</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6170813155880093</v>
+        <v>0.6129078687404111</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>110</v>
@@ -1270,19 +1270,19 @@
         <v>109031</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>91498</v>
+        <v>91023</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>126418</v>
+        <v>125872</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3250670956338392</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2727921992508799</v>
+        <v>0.2713776083017097</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3769026657154538</v>
+        <v>0.3752758004813676</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>283</v>
@@ -1291,19 +1291,19 @@
         <v>288475</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>263575</v>
+        <v>263860</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>314560</v>
+        <v>312984</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4409195541784928</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4028611727897642</v>
+        <v>0.4032958594888404</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4807892746262215</v>
+        <v>0.4783805930229171</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>180801</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>162458</v>
+        <v>160559</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>199421</v>
+        <v>198198</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5040867189206637</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4529454083287312</v>
+        <v>0.4476498668495191</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5560004760252355</v>
+        <v>0.5525899699829253</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>264</v>
@@ -1416,19 +1416,19 @@
         <v>255641</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>239183</v>
+        <v>238076</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>273570</v>
+        <v>272554</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6882143651549496</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6439070998566647</v>
+        <v>0.6409254488562072</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7364801960914665</v>
+        <v>0.7337447182519882</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>449</v>
@@ -1437,19 +1437,19 @@
         <v>436443</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>408954</v>
+        <v>412021</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>460849</v>
+        <v>463321</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5977626209285559</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5601129752966947</v>
+        <v>0.5643144822835635</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6311905618279721</v>
+        <v>0.6345762701869704</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>177870</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>159250</v>
+        <v>160473</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>196213</v>
+        <v>198112</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4959132810793363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4439995239747644</v>
+        <v>0.4474100300170746</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5470545916712688</v>
+        <v>0.552350133150481</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>120</v>
@@ -1487,19 +1487,19 @@
         <v>115815</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>97886</v>
+        <v>98902</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>132273</v>
+        <v>133380</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3117856348450503</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2635198039085335</v>
+        <v>0.2662552817480113</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3560929001433353</v>
+        <v>0.3590745511437927</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>297</v>
@@ -1508,19 +1508,19 @@
         <v>293684</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>269278</v>
+        <v>266806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>321173</v>
+        <v>318106</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4022373790714441</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3688094381720279</v>
+        <v>0.3654237298130297</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4398870247033057</v>
+        <v>0.4356855177164365</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>88654</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>75904</v>
+        <v>75252</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103245</v>
+        <v>103425</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4360594248161575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3733438299294997</v>
+        <v>0.3701400008917878</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5078253768717919</v>
+        <v>0.508711240998034</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>114</v>
@@ -1633,19 +1633,19 @@
         <v>119101</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103957</v>
+        <v>105017</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132351</v>
+        <v>134370</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5735178612954063</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5005931393452413</v>
+        <v>0.505695366855186</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6373184618302442</v>
+        <v>0.6470428672993458</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>207</v>
@@ -1654,19 +1654,19 @@
         <v>207756</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>188266</v>
+        <v>188227</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229383</v>
+        <v>226990</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5055177761355542</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4580939824721418</v>
+        <v>0.4580002359360389</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5581430204738921</v>
+        <v>0.552318159866476</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>114654</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>100063</v>
+        <v>99883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127404</v>
+        <v>128056</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5639405751838426</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.492174623128208</v>
+        <v>0.4912887590019658</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6266561700705003</v>
+        <v>0.6298599991082121</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>84</v>
@@ -1704,19 +1704,19 @@
         <v>88567</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75317</v>
+        <v>73298</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>103711</v>
+        <v>102651</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4264821387045937</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3626815381697557</v>
+        <v>0.3529571327006542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4994068606547587</v>
+        <v>0.4943046331448139</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>197</v>
@@ -1725,19 +1725,19 @@
         <v>203220</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>181593</v>
+        <v>183986</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>222710</v>
+        <v>222749</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4944822238644458</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4418569795261079</v>
+        <v>0.4476818401335237</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5419060175278582</v>
+        <v>0.5419997640639611</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>135777</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>119055</v>
+        <v>119880</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>151540</v>
+        <v>152501</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5013734449579504</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4396223673516811</v>
+        <v>0.4426698469279876</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5595797118136862</v>
+        <v>0.5631264534197862</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>173</v>
@@ -1850,19 +1850,19 @@
         <v>177536</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>161100</v>
+        <v>161140</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>193005</v>
+        <v>192954</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6382870914718326</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5791965049595347</v>
+        <v>0.5793411665211585</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6939037977008787</v>
+        <v>0.6937196863026938</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>309</v>
@@ -1871,19 +1871,19 @@
         <v>313313</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>290929</v>
+        <v>286491</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>336269</v>
+        <v>334976</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5707447213260388</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5299691607664454</v>
+        <v>0.5218840270854593</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6125616641107655</v>
+        <v>0.6102058615329834</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>135034</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>119271</v>
+        <v>118310</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>151756</v>
+        <v>150931</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4986265550420496</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.440420288186314</v>
+        <v>0.4368735465802138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.560377632648319</v>
+        <v>0.5573301530720125</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>97</v>
@@ -1921,19 +1921,19 @@
         <v>100608</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>85139</v>
+        <v>85190</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>117044</v>
+        <v>117004</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3617129085281674</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3060962022991212</v>
+        <v>0.3062803136973062</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4208034950404654</v>
+        <v>0.4206588334788415</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>227</v>
@@ -1942,19 +1942,19 @@
         <v>235642</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>212686</v>
+        <v>213979</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>258026</v>
+        <v>262464</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4292552786739612</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3874383358892349</v>
+        <v>0.3897941384670164</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4700308392335547</v>
+        <v>0.4781159729145406</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>252865</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>228388</v>
+        <v>229871</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>276298</v>
+        <v>278419</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.411144930230157</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3713460476742109</v>
+        <v>0.3737574196050277</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4492457695456289</v>
+        <v>0.4526942849836321</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>364</v>
@@ -2067,19 +2067,19 @@
         <v>372392</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>348172</v>
+        <v>347369</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>395204</v>
+        <v>397901</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.583486212467097</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.545537659534297</v>
+        <v>0.5442779455947039</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6192299120609014</v>
+        <v>0.6234556716193496</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>617</v>
@@ -2088,19 +2088,19 @@
         <v>625257</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>587027</v>
+        <v>588671</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>660655</v>
+        <v>662897</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4989102083235135</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.46840485018162</v>
+        <v>0.4697168453196368</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5271547275338307</v>
+        <v>0.5289438399311595</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>362162</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>338729</v>
+        <v>336608</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>386639</v>
+        <v>385156</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5888550697698429</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5507542304543711</v>
+        <v>0.5473057150163679</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6286539523257894</v>
+        <v>0.6262425803949724</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>257</v>
@@ -2138,19 +2138,19 @@
         <v>265827</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>243015</v>
+        <v>240318</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>290047</v>
+        <v>290850</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.416513787532903</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3807700879390988</v>
+        <v>0.3765443283806506</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4544623404657031</v>
+        <v>0.4557220544052961</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>602</v>
@@ -2159,19 +2159,19 @@
         <v>627989</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>592591</v>
+        <v>590349</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>666219</v>
+        <v>664575</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5010897916764866</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4728452724661693</v>
+        <v>0.4710561600688406</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5315951498183801</v>
+        <v>0.5302831546803634</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>343101</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>312293</v>
+        <v>313665</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>369895</v>
+        <v>369541</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4612843724974829</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4198639330291814</v>
+        <v>0.4217092412049077</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4973081830387541</v>
+        <v>0.4968322262086955</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>431</v>
@@ -2284,19 +2284,19 @@
         <v>457060</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>429722</v>
+        <v>429891</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>485836</v>
+        <v>489717</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5833489044217974</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5484569685447911</v>
+        <v>0.5486720404837265</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6200752366199365</v>
+        <v>0.6250291951792608</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>777</v>
@@ -2305,19 +2305,19 @@
         <v>800161</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>756747</v>
+        <v>758911</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>835669</v>
+        <v>838321</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5239037171811637</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4954781468537623</v>
+        <v>0.4968950635392451</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5471523097212893</v>
+        <v>0.548888555163051</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>400694</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>373900</v>
+        <v>374254</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>431502</v>
+        <v>430130</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5387156275025171</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5026918169612459</v>
+        <v>0.5031677737913045</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5801360669708185</v>
+        <v>0.5782907587950924</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>314</v>
@@ -2355,19 +2355,19 @@
         <v>326451</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>297675</v>
+        <v>293794</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>353789</v>
+        <v>353620</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4166510955782025</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3799247633800635</v>
+        <v>0.3749708048207392</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4515430314552089</v>
+        <v>0.4513279595162735</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>704</v>
@@ -2376,19 +2376,19 @@
         <v>727145</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>691637</v>
+        <v>688985</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>770559</v>
+        <v>768395</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4760962828188364</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4528476902787107</v>
+        <v>0.451111444836949</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5045218531462375</v>
+        <v>0.5031049364607549</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>1453801</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1392370</v>
+        <v>1402180</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1508157</v>
+        <v>1515476</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.443699761409807</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4249510226216046</v>
+        <v>0.427944986904724</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4602890864399785</v>
+        <v>0.4625229735471664</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1994</v>
@@ -2501,19 +2501,19 @@
         <v>2040770</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1981989</v>
+        <v>1986350</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2091213</v>
+        <v>2094494</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6039217156034284</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5865265152865727</v>
+        <v>0.587817075332582</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6188490451500129</v>
+        <v>0.6198199262428633</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3446</v>
@@ -2522,19 +2522,19 @@
         <v>3494572</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3402688</v>
+        <v>3419301</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3572080</v>
+        <v>3579993</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5250463201909409</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5112409849273009</v>
+        <v>0.5137370196283521</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5366915484612661</v>
+        <v>0.5378804098693706</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1822742</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1768386</v>
+        <v>1761067</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1884173</v>
+        <v>1874363</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.556300238590193</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5397109135600215</v>
+        <v>0.5374770264528339</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5750489773783954</v>
+        <v>0.5720550130952761</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1303</v>
@@ -2572,19 +2572,19 @@
         <v>1338427</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1287984</v>
+        <v>1284703</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1397208</v>
+        <v>1392847</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3960782843965715</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.381150954849987</v>
+        <v>0.3801800737571366</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4134734847134272</v>
+        <v>0.4121829246674181</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3065</v>
@@ -2593,19 +2593,19 @@
         <v>3161169</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3083661</v>
+        <v>3075748</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3253053</v>
+        <v>3236440</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4749536798090591</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4633084515387341</v>
+        <v>0.4621195901306294</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4887590150726996</v>
+        <v>0.4862629803716479</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>176600</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>159107</v>
+        <v>159000</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>192889</v>
+        <v>194536</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5991763819882054</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5398249172245518</v>
+        <v>0.5394614285494452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6544432216145594</v>
+        <v>0.6600314875842659</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>195</v>
@@ -2962,19 +2962,19 @@
         <v>220466</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>204021</v>
+        <v>204031</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>234888</v>
+        <v>234566</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7675174910939652</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7102671853172374</v>
+        <v>0.7103015532613286</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8177282209724605</v>
+        <v>0.8166063369799954</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>364</v>
@@ -2983,19 +2983,19 @@
         <v>397066</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>374562</v>
+        <v>373292</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>419671</v>
+        <v>418713</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6822632408030153</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.643596388984308</v>
+        <v>0.6414140009421676</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7211057187196549</v>
+        <v>0.7194588005122763</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>118138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>101849</v>
+        <v>100202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135631</v>
+        <v>135738</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4008236180117946</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3455567783854406</v>
+        <v>0.3399685124157341</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4601750827754481</v>
+        <v>0.4605385714505545</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -3033,19 +3033,19 @@
         <v>66779</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52357</v>
+        <v>52679</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83224</v>
+        <v>83214</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2324825089060348</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1822717790275395</v>
+        <v>0.1833936630200046</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2897328146827626</v>
+        <v>0.2896984467386714</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>174</v>
@@ -3054,19 +3054,19 @@
         <v>184917</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>162312</v>
+        <v>163270</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>207421</v>
+        <v>208691</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3177367591969847</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2788942812803444</v>
+        <v>0.280541199487722</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3564036110156918</v>
+        <v>0.3585859990578323</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>257810</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>236116</v>
+        <v>235031</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>280363</v>
+        <v>280907</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.509982259845485</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4670689067822842</v>
+        <v>0.464922181415798</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5545945488857977</v>
+        <v>0.5556720005282354</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>326</v>
@@ -3179,19 +3179,19 @@
         <v>357775</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>336196</v>
+        <v>336191</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>380901</v>
+        <v>379830</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6830838712729389</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6418825472331581</v>
+        <v>0.6418729052408492</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7272369265903766</v>
+        <v>0.7251907349069873</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>560</v>
@@ -3200,19 +3200,19 @@
         <v>615585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>582604</v>
+        <v>584107</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>648640</v>
+        <v>647180</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5980666355603051</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5660239706079403</v>
+        <v>0.5674842835335195</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6301804189466814</v>
+        <v>0.628762591339774</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>247717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>225164</v>
+        <v>224620</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>269411</v>
+        <v>270496</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.490017740154515</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4454054511142023</v>
+        <v>0.4443279994717645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5329310932177158</v>
+        <v>0.535077818584202</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>154</v>
@@ -3250,19 +3250,19 @@
         <v>165990</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>142864</v>
+        <v>143935</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>187569</v>
+        <v>187574</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3169161287270612</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2727630734096233</v>
+        <v>0.2748092650930128</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3581174527668419</v>
+        <v>0.3581270947591508</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>392</v>
@@ -3271,19 +3271,19 @@
         <v>413707</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>380652</v>
+        <v>382112</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>446688</v>
+        <v>445185</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4019333644396949</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3698195810533185</v>
+        <v>0.371237408660226</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4339760293920597</v>
+        <v>0.4325157164664804</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>190631</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172518</v>
+        <v>173846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>207045</v>
+        <v>209812</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5882836661305592</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5323888604875635</v>
+        <v>0.5364841037487541</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6389368828237078</v>
+        <v>0.6474747484782251</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>215</v>
@@ -3396,19 +3396,19 @@
         <v>229991</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>210779</v>
+        <v>212160</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>247127</v>
+        <v>248661</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6744221144473299</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6180828444476757</v>
+        <v>0.6221337255350409</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7246699698958237</v>
+        <v>0.7291694560950844</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>399</v>
@@ -3417,19 +3417,19 @@
         <v>420622</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>397676</v>
+        <v>395968</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>445071</v>
+        <v>446354</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6324521155071287</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.597950011562875</v>
+        <v>0.5953813597100921</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6692137133702893</v>
+        <v>0.6711419151572864</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>133415</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>117001</v>
+        <v>114234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>151528</v>
+        <v>150200</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4117163338694408</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3610631171762925</v>
+        <v>0.3525252515217751</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4676111395124366</v>
+        <v>0.463515896251246</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>102</v>
@@ -3467,19 +3467,19 @@
         <v>111029</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>93893</v>
+        <v>92359</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>130241</v>
+        <v>128860</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3255778855526701</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2753300301041762</v>
+        <v>0.2708305439049156</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3819171555523243</v>
+        <v>0.3778662744649591</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>237</v>
@@ -3488,19 +3488,19 @@
         <v>244444</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>219995</v>
+        <v>218712</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>267390</v>
+        <v>269098</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3675478844928713</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3307862866297109</v>
+        <v>0.3288580848427136</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4020499884371251</v>
+        <v>0.4046186402899081</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>212898</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>191587</v>
+        <v>193502</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>232418</v>
+        <v>230977</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5692740172836326</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5122894116272633</v>
+        <v>0.5174089294998345</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6214684896259872</v>
+        <v>0.6176163081352569</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>258</v>
@@ -3613,19 +3613,19 @@
         <v>272015</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>252180</v>
+        <v>253603</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>288234</v>
+        <v>289495</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6993548385503252</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6483595492950955</v>
+        <v>0.6520190724945569</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7410556110181834</v>
+        <v>0.7442976390915894</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>453</v>
@@ -3634,19 +3634,19 @@
         <v>484913</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>454200</v>
+        <v>457056</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>510177</v>
+        <v>509904</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6355905321398111</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5953336837750153</v>
+        <v>0.5990774395922998</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6687045114036827</v>
+        <v>0.6683475271347584</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>161084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>141564</v>
+        <v>143005</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>182395</v>
+        <v>180480</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4307259827163674</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3785315103740127</v>
+        <v>0.3823836918647431</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4877105883727368</v>
+        <v>0.4825910705001656</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>113</v>
@@ -3684,19 +3684,19 @@
         <v>116936</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>100717</v>
+        <v>99456</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136771</v>
+        <v>135348</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3006451614496748</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2589443889818166</v>
+        <v>0.2557023609084105</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3516404507049043</v>
+        <v>0.347980927505443</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>262</v>
@@ -3705,19 +3705,19 @@
         <v>278020</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>252756</v>
+        <v>253029</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>308733</v>
+        <v>305877</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3644094678601889</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3312954885963172</v>
+        <v>0.3316524728652419</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4046663162249847</v>
+        <v>0.4009225604077004</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>113792</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97802</v>
+        <v>97391</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>128999</v>
+        <v>127809</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5351964586964399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4599895861500796</v>
+        <v>0.4580572893475611</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6067176319880726</v>
+        <v>0.6011220502780336</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>168</v>
@@ -3830,19 +3830,19 @@
         <v>174738</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>162497</v>
+        <v>161845</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186031</v>
+        <v>186129</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7957421849305654</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7399962073352858</v>
+        <v>0.7370280851856118</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8471723715024402</v>
+        <v>0.8476177689976448</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>272</v>
@@ -3851,19 +3851,19 @@
         <v>288530</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>269671</v>
+        <v>267338</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>307757</v>
+        <v>307363</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6675710537614531</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6239354940447279</v>
+        <v>0.6185388204762789</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.712055298365722</v>
+        <v>0.7111443016412577</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>98826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83619</v>
+        <v>84809</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>114816</v>
+        <v>115227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4648035413035601</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3932823680119274</v>
+        <v>0.3988779497219665</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5400104138499203</v>
+        <v>0.5419427106524389</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -3901,19 +3901,19 @@
         <v>44853</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33560</v>
+        <v>33462</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57094</v>
+        <v>57746</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2042578150694346</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1528276284975597</v>
+        <v>0.1523822310023552</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2600037926647141</v>
+        <v>0.2629719148143886</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>136</v>
@@ -3922,19 +3922,19 @@
         <v>143679</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>124452</v>
+        <v>124846</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>162538</v>
+        <v>164871</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.332428946238547</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2879447016342778</v>
+        <v>0.288855698358742</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.376064505955272</v>
+        <v>0.381461179523721</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>171526</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>154631</v>
+        <v>154933</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>187145</v>
+        <v>188784</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6260508484893045</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5643854543681078</v>
+        <v>0.5654863083049632</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6830564977908914</v>
+        <v>0.6890399386336244</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>208</v>
@@ -4047,19 +4047,19 @@
         <v>216095</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>200436</v>
+        <v>200996</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>228690</v>
+        <v>229886</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7716835647433697</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7157621570923403</v>
+        <v>0.7177622821456745</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8166591499056756</v>
+        <v>0.8209317024828718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>371</v>
@@ -4068,19 +4068,19 @@
         <v>387621</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>365928</v>
+        <v>362456</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>409912</v>
+        <v>407319</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6996623853600277</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.660505715245235</v>
+        <v>0.654238169711578</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7398979346196911</v>
+        <v>0.7352173339505023</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>102455</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>86836</v>
+        <v>85197</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>119350</v>
+        <v>119048</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3739491515106955</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3169435022091086</v>
+        <v>0.3109600613663756</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4356145456318922</v>
+        <v>0.4345136916950368</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -4118,19 +4118,19 @@
         <v>63936</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51341</v>
+        <v>50145</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79595</v>
+        <v>79035</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2283164352566302</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1833408500943242</v>
+        <v>0.1790682975171279</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2842378429076597</v>
+        <v>0.2822377178543254</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>159</v>
@@ -4139,19 +4139,19 @@
         <v>166391</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>144100</v>
+        <v>146693</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>188084</v>
+        <v>191556</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3003376146399723</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2601020653803088</v>
+        <v>0.2647826660494983</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.339494284754765</v>
+        <v>0.3457618302884224</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>381907</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>353646</v>
+        <v>356226</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>406218</v>
+        <v>406541</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5762131614200932</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5335726430771768</v>
+        <v>0.5374661055659085</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6128926912337234</v>
+        <v>0.6133806934014694</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>427</v>
@@ -4264,19 +4264,19 @@
         <v>467848</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>441073</v>
+        <v>439849</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>490613</v>
+        <v>492423</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.674275862047332</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6356869657437473</v>
+        <v>0.6339230969070704</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7070850382651126</v>
+        <v>0.7096934812651183</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>786</v>
@@ -4285,19 +4285,19 @@
         <v>849755</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>806121</v>
+        <v>813099</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>884875</v>
+        <v>890490</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6263672520359223</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.594203335854013</v>
+        <v>0.5993469260739522</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6522542360552995</v>
+        <v>0.6563932004978004</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>280881</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>256570</v>
+        <v>256247</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>309142</v>
+        <v>306562</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4237868385799069</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3871073087662767</v>
+        <v>0.3866193065985308</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4664273569228234</v>
+        <v>0.4625338944340916</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>209</v>
@@ -4335,19 +4335,19 @@
         <v>226005</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>203240</v>
+        <v>201430</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>252780</v>
+        <v>254004</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3257241379526679</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2929149617348871</v>
+        <v>0.2903065187348816</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3643130342562527</v>
+        <v>0.3660769030929297</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>468</v>
@@ -4356,19 +4356,19 @@
         <v>506886</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>471766</v>
+        <v>466151</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>550520</v>
+        <v>543542</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3736327479640777</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3477457639447004</v>
+        <v>0.3436067995021996</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.405796664145987</v>
+        <v>0.4006530739260477</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>341037</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>311626</v>
+        <v>313430</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>370307</v>
+        <v>371113</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4377332929966335</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3999833230203895</v>
+        <v>0.4022989840736798</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4753020337263309</v>
+        <v>0.4763362978636898</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>423</v>
@@ -4481,19 +4481,19 @@
         <v>465197</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>437184</v>
+        <v>438217</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>492817</v>
+        <v>494801</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5646597789598513</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5306576859204075</v>
+        <v>0.5319120909423352</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5981859086774258</v>
+        <v>0.6005942624620639</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>731</v>
@@ -4502,19 +4502,19 @@
         <v>806234</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>766671</v>
+        <v>764557</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>847835</v>
+        <v>846019</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5029684428809009</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4782872023899602</v>
+        <v>0.4769683858078517</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5289213884185726</v>
+        <v>0.5277882325850247</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>438061</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>408791</v>
+        <v>407985</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>467472</v>
+        <v>465668</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5622667070033666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5246979662736693</v>
+        <v>0.5236637021363103</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6000166769796106</v>
+        <v>0.5977010159263204</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>334</v>
@@ -4552,19 +4552,19 @@
         <v>358656</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>331036</v>
+        <v>329052</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>386669</v>
+        <v>385636</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4353402210401487</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4018140913225743</v>
+        <v>0.3994057375379362</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4693423140795924</v>
+        <v>0.468087909057665</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>743</v>
@@ -4573,19 +4573,19 @@
         <v>796717</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>755116</v>
+        <v>756932</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>836280</v>
+        <v>838394</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4970315571190991</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4710786115814274</v>
+        <v>0.4722117674149753</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5217127976100399</v>
+        <v>0.5230316141921483</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1846202</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1782047</v>
+        <v>1779741</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1898667</v>
+        <v>1904940</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5387573310512408</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5200356809354589</v>
+        <v>0.5193627601244921</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5540675827139039</v>
+        <v>0.5558982610519254</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2220</v>
@@ -4698,19 +4698,19 @@
         <v>2404125</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2348960</v>
+        <v>2347097</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2460196</v>
+        <v>2461353</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6756370241573237</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6601338365420476</v>
+        <v>0.659610090325742</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6913946947942763</v>
+        <v>0.6917199729553822</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3936</v>
@@ -4719,19 +4719,19 @@
         <v>4250328</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4161495</v>
+        <v>4161814</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4331124</v>
+        <v>4332410</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.608485909930736</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5957684434175808</v>
+        <v>0.5958140555911067</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.620052955198685</v>
+        <v>0.6202370141580524</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1580577</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1528112</v>
+        <v>1521839</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1644732</v>
+        <v>1647038</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4612426689487593</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4459324172860959</v>
+        <v>0.4441017389480746</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.479964319064541</v>
+        <v>0.480637239875508</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1078</v>
@@ -4769,19 +4769,19 @@
         <v>1154184</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1098113</v>
+        <v>1096956</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1209349</v>
+        <v>1211212</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3243629758426763</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3086053052057233</v>
+        <v>0.3082800270446172</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3398661634579523</v>
+        <v>0.3403899096742574</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2571</v>
@@ -4790,19 +4790,19 @@
         <v>2734760</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2653964</v>
+        <v>2652678</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2823593</v>
+        <v>2823274</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.391514090069264</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3799470448013148</v>
+        <v>0.3797629858419475</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.404231556582419</v>
+        <v>0.4041859444088932</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>156140</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136538</v>
+        <v>139533</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173203</v>
+        <v>175751</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5315221460373167</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4647933121903617</v>
+        <v>0.4749884750882693</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5896059996100818</v>
+        <v>0.5982793681514671</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>177</v>
@@ -5159,19 +5159,19 @@
         <v>187467</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>170542</v>
+        <v>171517</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>203437</v>
+        <v>202792</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6493405555406421</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5907189197771098</v>
+        <v>0.5940965256128486</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7046576971441054</v>
+        <v>0.7024232176393298</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>322</v>
@@ -5180,19 +5180,19 @@
         <v>343607</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>319278</v>
+        <v>318675</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>368229</v>
+        <v>366734</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5899197950281722</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5481505824911204</v>
+        <v>0.5471160476590071</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.632191088024344</v>
+        <v>0.6296246295303999</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>137621</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120558</v>
+        <v>118010</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>157223</v>
+        <v>154228</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4684778539626832</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4103940003899183</v>
+        <v>0.4017206318485329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5352066878096383</v>
+        <v>0.5250115249117306</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -5230,19 +5230,19 @@
         <v>101236</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85266</v>
+        <v>85911</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>118161</v>
+        <v>117186</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3506594444593579</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2953423028558946</v>
+        <v>0.2975767823606701</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4092810802228904</v>
+        <v>0.4059034743871513</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>221</v>
@@ -5251,19 +5251,19 @@
         <v>238857</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>214235</v>
+        <v>215730</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>263186</v>
+        <v>263789</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4100802049718278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3678089119756561</v>
+        <v>0.3703753704696001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4518494175088796</v>
+        <v>0.452883952340993</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>281727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>259462</v>
+        <v>258441</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>303509</v>
+        <v>303691</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5605668372621759</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5162644912478445</v>
+        <v>0.5142339654341063</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6039080227722863</v>
+        <v>0.6042699211339586</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>333</v>
@@ -5376,19 +5376,19 @@
         <v>365818</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>344129</v>
+        <v>344305</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>385787</v>
+        <v>387913</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6993485802950417</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6578848379183548</v>
+        <v>0.6582218753789673</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7375247292054895</v>
+        <v>0.7415878200845963</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>600</v>
@@ -5397,19 +5397,19 @@
         <v>647545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>615681</v>
+        <v>615651</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>678133</v>
+        <v>677767</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6313452184623383</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.600277982377749</v>
+        <v>0.6002493731748292</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6611680758069156</v>
+        <v>0.6608114306370445</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>220848</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>199066</v>
+        <v>198884</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>243113</v>
+        <v>244134</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4394331627378241</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3960919772277136</v>
+        <v>0.3957300788660412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4837355087521555</v>
+        <v>0.4857660345658938</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>151</v>
@@ -5447,19 +5447,19 @@
         <v>157266</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>137297</v>
+        <v>135171</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>178955</v>
+        <v>178779</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3006514197049583</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2624752707945104</v>
+        <v>0.2584121799154038</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3421151620816451</v>
+        <v>0.341778124621033</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>359</v>
@@ -5468,19 +5468,19 @@
         <v>378114</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>347526</v>
+        <v>347892</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>409978</v>
+        <v>410008</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3686547815376617</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.338831924193084</v>
+        <v>0.3391885693629554</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3997220176222505</v>
+        <v>0.3997506268251708</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>163356</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145347</v>
+        <v>146785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>180733</v>
+        <v>180038</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5127877340614182</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4562541678128447</v>
+        <v>0.4607693852868943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5673359621382619</v>
+        <v>0.565152988481356</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>194</v>
@@ -5593,19 +5593,19 @@
         <v>203419</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>184965</v>
+        <v>185816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>222085</v>
+        <v>220047</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6048577849320834</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5499844718167506</v>
+        <v>0.5525151378210912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6603595475423711</v>
+        <v>0.6543009146590907</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>368</v>
@@ -5614,19 +5614,19 @@
         <v>366775</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>342402</v>
+        <v>341939</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>392458</v>
+        <v>390533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5600700921043834</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5228509815411029</v>
+        <v>0.5221448048188478</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5992873120908275</v>
+        <v>0.5963488373007243</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>155209</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>137832</v>
+        <v>138527</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>173218</v>
+        <v>171780</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4872122659385818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4326640378617381</v>
+        <v>0.434847011518644</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5437458321871553</v>
+        <v>0.5392306147131055</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -5664,19 +5664,19 @@
         <v>132890</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>114224</v>
+        <v>116262</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>151344</v>
+        <v>150493</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3951422150679165</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3396404524576288</v>
+        <v>0.3456990853409094</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4500155281832494</v>
+        <v>0.4474848621789089</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>299</v>
@@ -5685,19 +5685,19 @@
         <v>288099</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>262416</v>
+        <v>264341</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>312472</v>
+        <v>312935</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4399299078956166</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4007126879091724</v>
+        <v>0.4036511626992757</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4771490184588971</v>
+        <v>0.4778551951811521</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>205998</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>185089</v>
+        <v>186557</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>226322</v>
+        <v>226030</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5568042415505201</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5002903292975358</v>
+        <v>0.5042574110706172</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6117414021746616</v>
+        <v>0.6109523204643869</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>245</v>
@@ -5810,19 +5810,19 @@
         <v>270454</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>248826</v>
+        <v>251000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>286922</v>
+        <v>287608</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6983366071800117</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6424921524194029</v>
+        <v>0.6481053931324716</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7408594884343565</v>
+        <v>0.7426302221508825</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>445</v>
@@ -5831,19 +5831,19 @@
         <v>476451</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>448699</v>
+        <v>448428</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>503393</v>
+        <v>500349</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6291889183447514</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5925398821226598</v>
+        <v>0.5921822147494323</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6647678131059953</v>
+        <v>0.6607477732196263</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>163966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143642</v>
+        <v>143934</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>184875</v>
+        <v>183407</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4431957584494799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3882585978253385</v>
+        <v>0.3890476795356131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4997096707024642</v>
+        <v>0.4957425889293829</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>113</v>
@@ -5881,19 +5881,19 @@
         <v>116829</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>100361</v>
+        <v>99675</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>138457</v>
+        <v>136283</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3016633928199883</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2591405115656435</v>
+        <v>0.2573697778491173</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3575078475805968</v>
+        <v>0.3518946068675282</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>267</v>
@@ -5902,19 +5902,19 @@
         <v>280796</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>253854</v>
+        <v>256898</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>308548</v>
+        <v>308819</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3708110816552486</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3352321868940046</v>
+        <v>0.3392522267803737</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4074601178773399</v>
+        <v>0.4078177852505674</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>108244</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93460</v>
+        <v>94215</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121666</v>
+        <v>122471</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5124679507382758</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4424744958927673</v>
+        <v>0.4460501701687259</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5760139778779774</v>
+        <v>0.5798260490343792</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>132</v>
@@ -6027,19 +6027,19 @@
         <v>132005</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>116736</v>
+        <v>117537</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>145699</v>
+        <v>145400</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6039036212960808</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5340493997789315</v>
+        <v>0.5377127949263096</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6665494670291255</v>
+        <v>0.6651795571595069</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>242</v>
@@ -6048,19 +6048,19 @@
         <v>240249</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>220446</v>
+        <v>220010</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>260551</v>
+        <v>259634</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5589692932009294</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5128949754052854</v>
+        <v>0.5118791392576235</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6062031388762583</v>
+        <v>0.6040700358917163</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>102977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89555</v>
+        <v>88750</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>117761</v>
+        <v>117006</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4875320492617242</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4239860221220226</v>
+        <v>0.4201739509656208</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5575255041072326</v>
+        <v>0.5539498298312739</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>91</v>
@@ -6098,19 +6098,19 @@
         <v>86582</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>72888</v>
+        <v>73187</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>101851</v>
+        <v>101050</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3960963787039192</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3334505329708745</v>
+        <v>0.3348204428404929</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4659506002210687</v>
+        <v>0.4622872050736904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>193</v>
@@ -6119,19 +6119,19 @@
         <v>189559</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>169257</v>
+        <v>170174</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>209362</v>
+        <v>209798</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4410307067990706</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3937968611237416</v>
+        <v>0.3959299641082837</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4871050245947145</v>
+        <v>0.4881208607423765</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>117564</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>102555</v>
+        <v>103559</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>134333</v>
+        <v>135463</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4468039678089111</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3897598942164223</v>
+        <v>0.3935751429862492</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5105315834086224</v>
+        <v>0.5148267045676301</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>142</v>
@@ -6244,19 +6244,19 @@
         <v>154299</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>137446</v>
+        <v>138931</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>170384</v>
+        <v>169695</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5649611260526721</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5032538001661789</v>
+        <v>0.508689130119052</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6238549326075294</v>
+        <v>0.6213308532328278</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>261</v>
@@ -6265,19 +6265,19 @@
         <v>271864</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>249803</v>
+        <v>248636</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>294878</v>
+        <v>295219</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5069833887904175</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4658433277658767</v>
+        <v>0.463667471256842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5499012828360937</v>
+        <v>0.550536404703188</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>145559</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>128790</v>
+        <v>127660</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160568</v>
+        <v>159564</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5531960321910888</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4894684165913776</v>
+        <v>0.4851732954323699</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6102401057835777</v>
+        <v>0.6064248570137508</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>121</v>
@@ -6315,19 +6315,19 @@
         <v>118816</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>102731</v>
+        <v>103420</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>135669</v>
+        <v>134184</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4350388739473279</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3761450673924704</v>
+        <v>0.3786691467671722</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.496746199833821</v>
+        <v>0.4913108698809479</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>261</v>
@@ -6336,19 +6336,19 @@
         <v>264374</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>241360</v>
+        <v>241019</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>286435</v>
+        <v>287602</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4930166112095825</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4500987171639062</v>
+        <v>0.449463595296812</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5341566722341232</v>
+        <v>0.5363325287431578</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>278997</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>252739</v>
+        <v>254702</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>305660</v>
+        <v>304515</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4249391074709549</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3849457093485342</v>
+        <v>0.3879345609011222</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4655496889931625</v>
+        <v>0.4638056539376289</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>335</v>
@@ -6461,19 +6461,19 @@
         <v>373580</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>347703</v>
+        <v>348922</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>401119</v>
+        <v>402779</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5404063793227533</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5029737451099778</v>
+        <v>0.5047379289486932</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.580243527605152</v>
+        <v>0.5826449349713456</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>584</v>
@@ -6482,19 +6482,19 @@
         <v>652577</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>615888</v>
+        <v>614793</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>692089</v>
+        <v>691123</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4841606187551253</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4569404999814287</v>
+        <v>0.4561281502694686</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5134752817670293</v>
+        <v>0.5127589212098326</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>377561</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>350898</v>
+        <v>352043</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>403819</v>
+        <v>401856</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5750608925290451</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5344503110068376</v>
+        <v>0.5361943460623714</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.615054290651466</v>
+        <v>0.6120654390988779</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>311</v>
@@ -6532,19 +6532,19 @@
         <v>317714</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>290175</v>
+        <v>288515</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>343591</v>
+        <v>342372</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4595936206772467</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.419756472394848</v>
+        <v>0.4173550650286544</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4970262548900222</v>
+        <v>0.4952620710513069</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>642</v>
@@ -6553,19 +6553,19 @@
         <v>695275</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>655763</v>
+        <v>656729</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>731964</v>
+        <v>733059</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5158393812448747</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4865247182329707</v>
+        <v>0.4872410787901674</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5430595000185713</v>
+        <v>0.5438718497305315</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>374820</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>346951</v>
+        <v>347503</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>402441</v>
+        <v>401875</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4814126438734377</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4456184106417694</v>
+        <v>0.446327194518604</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5168891901858259</v>
+        <v>0.5161617938229573</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>427</v>
@@ -6678,19 +6678,19 @@
         <v>485859</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>453195</v>
+        <v>458072</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>515818</v>
+        <v>515676</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5880884545776731</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5485515957653843</v>
+        <v>0.5544544702905103</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6243509262586687</v>
+        <v>0.6241790841832233</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>789</v>
@@ -6699,19 +6699,19 @@
         <v>860679</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>821642</v>
+        <v>818302</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>903067</v>
+        <v>900215</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5363321234069199</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.512006280852496</v>
+        <v>0.5099252214402407</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5627463572606808</v>
+        <v>0.5609692419370473</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>403763</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>376142</v>
+        <v>376708</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>431632</v>
+        <v>431080</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5185873561265623</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4831108098141742</v>
+        <v>0.4838382061770425</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5543815893582306</v>
+        <v>0.553672805481396</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>328</v>
@@ -6749,19 +6749,19 @@
         <v>340308</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>310349</v>
+        <v>310491</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>372972</v>
+        <v>368095</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4119115454223269</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3756490737413314</v>
+        <v>0.3758209158167768</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4514484042346161</v>
+        <v>0.4455455297094897</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>716</v>
@@ -6770,19 +6770,19 @@
         <v>744071</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>701683</v>
+        <v>704535</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>783108</v>
+        <v>786448</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.46366787659308</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4372536427393192</v>
+        <v>0.4390307580629526</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.487993719147504</v>
+        <v>0.4900747785597592</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1686846</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1626491</v>
+        <v>1630871</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1744298</v>
+        <v>1750011</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4969571176811913</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4791758801188047</v>
+        <v>0.4804664174383064</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5138827481849355</v>
+        <v>0.5155657601347958</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1985</v>
@@ -6895,19 +6895,19 @@
         <v>2172901</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2113195</v>
+        <v>2119305</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2228677</v>
+        <v>2235107</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.613027418908783</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5961827988013536</v>
+        <v>0.5979066979750358</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6287630837305335</v>
+        <v>0.6305770440981406</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3611</v>
@@ -6916,19 +6916,19 @@
         <v>3859748</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3780428</v>
+        <v>3771424</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3941075</v>
+        <v>3942104</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5562484335355922</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5448172685143606</v>
+        <v>0.5435196737757257</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5679689396079676</v>
+        <v>0.568117186863942</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1707504</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1650052</v>
+        <v>1644339</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1767859</v>
+        <v>1763479</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5030428823188087</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4861172518150644</v>
+        <v>0.4844342398652042</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5208241198811953</v>
+        <v>0.5195335825616936</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1353</v>
@@ -6966,19 +6966,19 @@
         <v>1371641</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1315865</v>
+        <v>1309435</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1431347</v>
+        <v>1425237</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.386972581091217</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3712369162694664</v>
+        <v>0.3694229559018593</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4038172011986463</v>
+        <v>0.4020933020249641</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2958</v>
@@ -6987,19 +6987,19 @@
         <v>3079144</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2997817</v>
+        <v>2996788</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3158464</v>
+        <v>3167468</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4437515664644078</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4320310603920324</v>
+        <v>0.431882813136058</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4551827314856394</v>
+        <v>0.4564803262242741</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>177274</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>160302</v>
+        <v>158735</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>196231</v>
+        <v>194555</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.555987323436766</v>
+        <v>0.5559873234367662</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5027576723992384</v>
+        <v>0.4978428309103197</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.615441878057879</v>
+        <v>0.6101879638353963</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>359</v>
@@ -7356,19 +7356,19 @@
         <v>203243</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>187414</v>
+        <v>189400</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>216880</v>
+        <v>217511</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6430485731013974</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5929688558270112</v>
+        <v>0.5992525039581988</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6861963068153231</v>
+        <v>0.6881917359351005</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>549</v>
@@ -7377,19 +7377,19 @@
         <v>380516</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>356663</v>
+        <v>355490</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>404083</v>
+        <v>403236</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5993270270118255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5617574342275328</v>
+        <v>0.5599092749462941</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6364455446851991</v>
+        <v>0.6351107143949761</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>141571</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>122614</v>
+        <v>124290</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>158543</v>
+        <v>160110</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4440126765632339</v>
+        <v>0.444012676563234</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3845581219421209</v>
+        <v>0.389812036164605</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4972423276007617</v>
+        <v>0.5021571690896804</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>179</v>
@@ -7427,19 +7427,19 @@
         <v>112818</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99181</v>
+        <v>98550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>128647</v>
+        <v>126661</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3569514268986027</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3138036931846771</v>
+        <v>0.3118082640648999</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4070311441729889</v>
+        <v>0.4007474960418014</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>320</v>
@@ -7448,19 +7448,19 @@
         <v>254390</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>230823</v>
+        <v>231670</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>278243</v>
+        <v>279416</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4006729729881746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.363554455314801</v>
+        <v>0.3648892856050239</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4382425657724672</v>
+        <v>0.4400907250537056</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>172135</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>147125</v>
+        <v>148121</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>199006</v>
+        <v>202525</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.324387696798009</v>
+        <v>0.3243876967980091</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2772561328703486</v>
+        <v>0.2791336896641278</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3750247937052413</v>
+        <v>0.3816560511810482</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>297</v>
@@ -7573,19 +7573,19 @@
         <v>203506</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>183978</v>
+        <v>184713</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>224705</v>
+        <v>224304</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3723840551586573</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3366510105064106</v>
+        <v>0.3379955949992794</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4111759251861299</v>
+        <v>0.4104409579298159</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>435</v>
@@ -7594,19 +7594,19 @@
         <v>375641</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>346824</v>
+        <v>344094</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>411089</v>
+        <v>409668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3487389469152577</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3219859798406457</v>
+        <v>0.3194511948822383</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3816484577462406</v>
+        <v>0.3803291979410462</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>358512</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>331641</v>
+        <v>328122</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>383522</v>
+        <v>382526</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6756123032019909</v>
+        <v>0.6756123032019907</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6249752062947589</v>
+        <v>0.6183439488189518</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7227438671296514</v>
+        <v>0.720866310335872</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>420</v>
@@ -7644,19 +7644,19 @@
         <v>342988</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>321789</v>
+        <v>322190</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362516</v>
+        <v>361781</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6276159448413426</v>
+        <v>0.6276159448413428</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5888240748138701</v>
+        <v>0.5895590420701842</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6633489894935892</v>
+        <v>0.6620044050007207</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>664</v>
@@ -7665,19 +7665,19 @@
         <v>701500</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>666052</v>
+        <v>667473</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>730317</v>
+        <v>733047</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6512610530847424</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6183515422537595</v>
+        <v>0.6196708020589538</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6780140201593543</v>
+        <v>0.6805488051177616</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>126420</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110610</v>
+        <v>112226</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>143483</v>
+        <v>144209</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4000710644146318</v>
+        <v>0.4000710644146319</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3500378674238662</v>
+        <v>0.3551541224885244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4540705875583014</v>
+        <v>0.4563683488195302</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>270</v>
@@ -7790,19 +7790,19 @@
         <v>159441</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>145249</v>
+        <v>145053</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>174766</v>
+        <v>175360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4473897366256331</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4075662854802179</v>
+        <v>0.4070179498272608</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4903914515388416</v>
+        <v>0.4920571890798901</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>429</v>
@@ -7811,19 +7811,19 @@
         <v>285861</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>264900</v>
+        <v>262586</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>310763</v>
+        <v>308653</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4251515591168635</v>
+        <v>0.4251515591168636</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.393976578270792</v>
+        <v>0.3905353294234929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4621872609332779</v>
+        <v>0.4590482132756457</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>189573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>172510</v>
+        <v>171784</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>205383</v>
+        <v>203767</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5999289355853681</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5459294124416983</v>
+        <v>0.5436316511804697</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6499621325761339</v>
+        <v>0.6448458775114755</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -7861,19 +7861,19 @@
         <v>196940</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>181615</v>
+        <v>181021</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>211132</v>
+        <v>211328</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5526102633743669</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5096085484611581</v>
+        <v>0.50794281092011</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5924337145197821</v>
+        <v>0.5929820501727391</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>467</v>
@@ -7882,19 +7882,19 @@
         <v>386514</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>361612</v>
+        <v>363722</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>407475</v>
+        <v>409789</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5748484408831366</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5378127390667221</v>
+        <v>0.5409517867243546</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6060234217292083</v>
+        <v>0.6094646705765072</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>150417</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127048</v>
+        <v>128271</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>173285</v>
+        <v>174677</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.4031066983021497</v>
+        <v>0.4031066983021496</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3404778144915233</v>
+        <v>0.3437566499081992</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4643905074260367</v>
+        <v>0.4681215879541047</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>339</v>
@@ -8007,19 +8007,19 @@
         <v>206057</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>187328</v>
+        <v>186004</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223940</v>
+        <v>225604</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4883311053894356</v>
+        <v>0.4883311053894357</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4439457811336351</v>
+        <v>0.4408094362832712</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5307127983535226</v>
+        <v>0.5346553582759277</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>482</v>
@@ -8028,19 +8028,19 @@
         <v>356474</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>327981</v>
+        <v>322643</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>385963</v>
+        <v>385147</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4483351107436854</v>
+        <v>0.4483351107436853</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4124985706846191</v>
+        <v>0.405785518480374</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4854232603747132</v>
+        <v>0.4843962582369735</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>222728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>199860</v>
+        <v>198468</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>246097</v>
+        <v>244874</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5968933016978504</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5356094925739631</v>
+        <v>0.5318784120458953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6595221855084766</v>
+        <v>0.6562433500918009</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>260</v>
@@ -8078,19 +8078,19 @@
         <v>215904</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>198021</v>
+        <v>196357</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>234633</v>
+        <v>235957</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5116688946105644</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4692872016464773</v>
+        <v>0.4653446417240723</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5560542188663649</v>
+        <v>0.5591905637167289</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>409</v>
@@ -8099,19 +8099,19 @@
         <v>438633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>409144</v>
+        <v>409960</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>467126</v>
+        <v>472464</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5516648892563147</v>
+        <v>0.5516648892563145</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5145767396252869</v>
+        <v>0.5156037417630266</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.587501429315381</v>
+        <v>0.5942144815196261</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>19135</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13077</v>
+        <v>13488</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27542</v>
+        <v>27551</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09303978327896122</v>
+        <v>0.09303978327896124</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06358422842516608</v>
+        <v>0.06558275790884287</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1339163632379675</v>
+        <v>0.1339623700921846</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -8224,19 +8224,19 @@
         <v>26680</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20086</v>
+        <v>21500</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33058</v>
+        <v>33351</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1165499546306267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08774438122247474</v>
+        <v>0.09392093762734989</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1444094349409822</v>
+        <v>0.1456890291990617</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>93</v>
@@ -8245,19 +8245,19 @@
         <v>45815</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36978</v>
+        <v>37713</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56526</v>
+        <v>56854</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1054238395430655</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0850889721235475</v>
+        <v>0.0867795094789262</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1300690605472511</v>
+        <v>0.1308255734573489</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>186530</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>178123</v>
+        <v>178114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>192588</v>
+        <v>192177</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9069602167210385</v>
+        <v>0.9069602167210387</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8660836367620325</v>
+        <v>0.8660376299078155</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9364157715748339</v>
+        <v>0.9344172420911571</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>431</v>
@@ -8295,19 +8295,19 @@
         <v>202238</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>195860</v>
+        <v>195567</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208832</v>
+        <v>207418</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8834500453693733</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.855590565059018</v>
+        <v>0.8543109708009382</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9122556187775254</v>
+        <v>0.90607906237265</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>681</v>
@@ -8316,19 +8316,19 @@
         <v>388767</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>378056</v>
+        <v>377728</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>397604</v>
+        <v>396869</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8945761604569344</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8699309394527489</v>
+        <v>0.8691744265426511</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9149110278764526</v>
+        <v>0.9132204905210738</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>133669</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>120331</v>
+        <v>118122</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>148776</v>
+        <v>148250</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4937775356900238</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4445062153426514</v>
+        <v>0.4363453505880339</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5495845333846232</v>
+        <v>0.5476418313744966</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>261</v>
@@ -8441,19 +8441,19 @@
         <v>132457</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>119915</v>
+        <v>120087</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>144876</v>
+        <v>147610</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5022078996047844</v>
+        <v>0.5022078996047842</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4546544648825153</v>
+        <v>0.4553075444987934</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5492943488088137</v>
+        <v>0.5596585352246641</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>470</v>
@@ -8462,19 +8462,19 @@
         <v>266126</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>246907</v>
+        <v>245262</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>283913</v>
+        <v>285620</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4979378513285991</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4619772883772791</v>
+        <v>0.4588988950681267</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.531218566117308</v>
+        <v>0.5344112665475338</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>137038</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>121931</v>
+        <v>122457</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150376</v>
+        <v>152585</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5062224643099763</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4504154666153767</v>
+        <v>0.4523581686255033</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5554937846573486</v>
+        <v>0.5636546494119661</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>199</v>
@@ -8512,19 +8512,19 @@
         <v>131293</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>118874</v>
+        <v>116140</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>143835</v>
+        <v>143663</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4977921003952157</v>
+        <v>0.4977921003952154</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4507056511911862</v>
+        <v>0.4403414647753357</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5453455351174846</v>
+        <v>0.5446924555012064</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>361</v>
@@ -8533,19 +8533,19 @@
         <v>268331</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>250544</v>
+        <v>248837</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>287550</v>
+        <v>289195</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5020621486714009</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.468781433882692</v>
+        <v>0.4655887334524659</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5380227116227212</v>
+        <v>0.5411011049318735</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>152527</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>126182</v>
+        <v>128627</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>178747</v>
+        <v>178653</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2119347985995687</v>
+        <v>0.2119347985995686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1753291272304029</v>
+        <v>0.1787262931757955</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2483682797213133</v>
+        <v>0.2482366265255725</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>269</v>
@@ -8658,19 +8658,19 @@
         <v>211479</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>188267</v>
+        <v>191337</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>234492</v>
+        <v>237103</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2739162237738191</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2438516985837154</v>
+        <v>0.2478269164953245</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3037239510190144</v>
+        <v>0.3071056025764013</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>402</v>
@@ -8679,19 +8679,19 @@
         <v>364006</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>332609</v>
+        <v>333565</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>401187</v>
+        <v>401266</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2440134828948179</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2229666175068007</v>
+        <v>0.2236071281887898</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2689379706634288</v>
+        <v>0.2689912843571815</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>567160</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>540940</v>
+        <v>541034</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>593505</v>
+        <v>591060</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7880652014004316</v>
+        <v>0.7880652014004315</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7516317202786867</v>
+        <v>0.7517633734744275</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8246708727695972</v>
+        <v>0.8212737068242045</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>691</v>
@@ -8729,19 +8729,19 @@
         <v>560578</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>537565</v>
+        <v>534954</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>583790</v>
+        <v>580720</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7260837762261807</v>
+        <v>0.7260837762261808</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6962760489809857</v>
+        <v>0.6928943974235986</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7561483014162844</v>
+        <v>0.7521730835046757</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1157</v>
@@ -8750,19 +8750,19 @@
         <v>1127738</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1090557</v>
+        <v>1090478</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1159135</v>
+        <v>1158179</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7559865171051821</v>
+        <v>0.7559865171051823</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7310620293365714</v>
+        <v>0.7310087156428186</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7770333824931992</v>
+        <v>0.7763928718112104</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>230422</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>205062</v>
+        <v>205464</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>256924</v>
+        <v>259497</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2887235949249369</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2569462473983892</v>
+        <v>0.2574503355423492</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3219303570364977</v>
+        <v>0.3251551829188958</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>490</v>
@@ -8875,19 +8875,19 @@
         <v>340661</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>316776</v>
+        <v>317458</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>367201</v>
+        <v>366923</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4097783323146486</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3810466202405433</v>
+        <v>0.3818669403959783</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.441702978364327</v>
+        <v>0.4413685176291202</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>751</v>
@@ -8896,19 +8896,19 @@
         <v>571084</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>538511</v>
+        <v>534453</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>613361</v>
+        <v>609036</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.350486454676134</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3304958398982915</v>
+        <v>0.3280056373379282</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3764330043925177</v>
+        <v>0.3737786383313679</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>567650</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>541148</v>
+        <v>538575</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>593010</v>
+        <v>592608</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.711276405075063</v>
+        <v>0.7112764050750632</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6780696429635024</v>
+        <v>0.674844817081104</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7430537526016112</v>
+        <v>0.7425496644576507</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>572</v>
@@ -8946,19 +8946,19 @@
         <v>490670</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>464130</v>
+        <v>464408</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>514555</v>
+        <v>513873</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5902216676853514</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5582970216356732</v>
+        <v>0.5586314823708799</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6189533797594567</v>
+        <v>0.6181330596040217</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1073</v>
@@ -8967,19 +8967,19 @@
         <v>1058319</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1016042</v>
+        <v>1020367</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1090892</v>
+        <v>1094950</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.649513545323866</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6235669956074824</v>
+        <v>0.6262213616686321</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6695041601017093</v>
+        <v>0.6719943626620719</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1162000</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1104242</v>
+        <v>1103776</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1224424</v>
+        <v>1221803</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3289209929412851</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3125719783609309</v>
+        <v>0.3124399584707312</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3465911682209585</v>
+        <v>0.3458490884432784</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2349</v>
@@ -9092,19 +9092,19 @@
         <v>1483525</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1431428</v>
+        <v>1428805</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1538284</v>
+        <v>1538334</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3969876982928979</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3830466159447068</v>
+        <v>0.3823447356682616</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4116411238320196</v>
+        <v>0.4116545634969717</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3611</v>
@@ -9113,19 +9113,19 @@
         <v>2645524</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2564368</v>
+        <v>2562631</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2729441</v>
+        <v>2724299</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3639102766400566</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3527466889604401</v>
+        <v>0.3525076701828668</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3754536509548334</v>
+        <v>0.3747462531271659</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2370762</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2308338</v>
+        <v>2310959</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2428520</v>
+        <v>2428986</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6710790070587148</v>
+        <v>0.671079007058715</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6534088317790414</v>
+        <v>0.6541509115567217</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6874280216390692</v>
+        <v>0.6875600415292686</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3018</v>
@@ -9163,19 +9163,19 @@
         <v>2253429</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2198670</v>
+        <v>2198620</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2305526</v>
+        <v>2308149</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6030123017071023</v>
+        <v>0.6030123017071021</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5883588761679804</v>
+        <v>0.5883454365030283</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.616953384055293</v>
+        <v>0.6176552643317385</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5132</v>
@@ -9184,19 +9184,19 @@
         <v>4624192</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4540275</v>
+        <v>4545417</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4705348</v>
+        <v>4707085</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.6360897233599434</v>
+        <v>0.6360897233599432</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6245463490451666</v>
+        <v>0.625253746872834</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6472533110395596</v>
+        <v>0.6474923298171331</v>
       </c>
     </row>
     <row r="30">
